--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134A3D01-D03B-4993-B9DB-4322351E7DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EF1DA9-120E-4877-932C-B42000B0C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6310" yWindow="1810" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EF1DA9-120E-4877-932C-B42000B0C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D515AFA7-232A-4380-814E-D9EBD1414331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D515AFA7-232A-4380-814E-D9EBD1414331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{350BC793-A998-4F90-A60F-8425023B0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="1500" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{350BC793-A998-4F90-A60F-8425023B0CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5B79D8-952B-465A-A62F-A5C0770AEB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1500" windowWidth="19200" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5B79D8-952B-465A-A62F-A5C0770AEB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2BDDB2-185B-464B-B7A3-FFB8F76E687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2BDDB2-185B-464B-B7A3-FFB8F76E687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C45700-F361-43E3-B2A8-006EAB65138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1C45700-F361-43E3-B2A8-006EAB65138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A40A7C2-B5FD-4FDA-9AD9-52BEA72D372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5830" yWindow="1840" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A40A7C2-B5FD-4FDA-9AD9-52BEA72D372F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3AE0D2-075C-4B02-A570-90AEACEFA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5830" yWindow="1840" windowWidth="19390" windowHeight="11830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19390" windowHeight="12310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;Lヘッダ右&amp;Cヘッダ中央&amp;Rヘッダ左</oddHeader>
-    <oddFooter>&amp;LAAA-&amp;P&amp;Rフッタ左</oddFooter>
+    <oddFooter>&amp;LCCC-&amp;P&amp;Rフッタ左</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="46" man="1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3AE0D2-075C-4B02-A570-90AEACEFA9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70336887-4475-4D09-8DA3-1064C5229972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19390" windowHeight="12310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="22620" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70336887-4475-4D09-8DA3-1064C5229972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F2E40A-4D5C-4CF1-B7E3-56E12BCC0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="22620" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="22620" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F2E40A-4D5C-4CF1-B7E3-56E12BCC0F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E238C330-B05C-438C-8C48-B43F62654437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="22620" windowHeight="12150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="19040" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>

--- a/out/aaa.xlsx
+++ b/out/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E238C330-B05C-438C-8C48-B43F62654437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79541AD1-16F5-4B3A-8E9B-69DED4F31174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="19040" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19040" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="２ページ" sheetId="4" r:id="rId1"/>
